--- a/parameter_list/BIRCH+parameterTuning.xlsx
+++ b/parameter_list/BIRCH+parameterTuning.xlsx
@@ -545,23 +545,23 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3566592487960677</v>
+        <v>0.3974203835934361</v>
       </c>
       <c r="F4" t="n">
-        <v>3221.634458562727</v>
+        <v>3856.985618983408</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7053564302217833</v>
+        <v>0.6381187753694391</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>"3.0,0.2,100.0"</t>
+          <t>"3.0,0.15,100.0"</t>
         </is>
       </c>
     </row>
@@ -575,23 +575,23 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4633476883136823</v>
+        <v>0.3586950969385637</v>
       </c>
       <c r="F5" t="n">
-        <v>2690.042398483256</v>
+        <v>5348.788252781003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6032365096527522</v>
+        <v>0.7866362185200709</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>"3.0,0.2,200.0"</t>
+          <t>"3.0,0.15,200.0"</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3231838505087822</v>
+        <v>0.499493925956974</v>
       </c>
       <c r="F10" t="n">
-        <v>3921.478967281385</v>
+        <v>2676.156336304413</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9281482168107766</v>
+        <v>0.7094648715135946</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>"3.0,0.2,100.0"</t>
+          <t>"3.0,0.15,100.0"</t>
         </is>
       </c>
     </row>
@@ -755,23 +755,23 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2454802849236465</v>
+        <v>0.3665660738229747</v>
       </c>
       <c r="F11" t="n">
-        <v>2548.372013249015</v>
+        <v>4483.651273520039</v>
       </c>
       <c r="G11" t="n">
-        <v>1.189096016338302</v>
+        <v>0.9235352012812384</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>"3.0,0.2,200.0"</t>
+          <t>"3.0,0.15,200.0"</t>
         </is>
       </c>
     </row>
@@ -905,23 +905,23 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D16" t="n">
         <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3978266074705848</v>
+        <v>0.3473345736718883</v>
       </c>
       <c r="F16" t="n">
-        <v>5178.300009147746</v>
+        <v>6365.287818719187</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7628516918189615</v>
+        <v>0.859431303368857</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>"3.0,0.2,100.0"</t>
+          <t>"3.0,0.15,100.0"</t>
         </is>
       </c>
     </row>
@@ -935,23 +935,23 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D17" t="n">
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3663602097194694</v>
+        <v>0.3258736081396673</v>
       </c>
       <c r="F17" t="n">
-        <v>4229.830225587667</v>
+        <v>5627.02058936757</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8179931331702126</v>
+        <v>0.7634240930336716</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>"3.0,0.2,200.0"</t>
+          <t>"3.0,0.15,200.0"</t>
         </is>
       </c>
     </row>
@@ -1085,23 +1085,23 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D22" t="n">
         <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3681599345780733</v>
+        <v>0.4142863310628517</v>
       </c>
       <c r="F22" t="n">
-        <v>4110.140178597334</v>
+        <v>4144.983315882852</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8507868584691503</v>
+        <v>0.7102697189780666</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>"3.0,0.2,100.0"</t>
+          <t>"3.0,0.15,100.0"</t>
         </is>
       </c>
     </row>
@@ -1115,23 +1115,23 @@
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D23" t="n">
         <v>200</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3677677542214488</v>
+        <v>0.312397743879483</v>
       </c>
       <c r="F23" t="n">
-        <v>6125.182958168617</v>
+        <v>5274.578254434797</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7528861907063454</v>
+        <v>0.9719892019171535</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>"3.0,0.2,200.0"</t>
+          <t>"3.0,0.15,200.0"</t>
         </is>
       </c>
     </row>
